--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1549052.477694439</v>
+        <v>1653286.186087885</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10416354.79975671</v>
+        <v>10425267.69100832</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>21.27902055891089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>22.19039300819541</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.63672322385023</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>278.6854800401445</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>117.0340619339638</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.2319944898052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>73.11206506387242</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>188.9596386292754</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>179.1913296314501</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>317.7571317187197</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>38.08911817509509</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>50.48639156340151</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>151.8518831495026</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2811815126421415</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>114.2173032139413</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="H37" t="n">
-        <v>105.1820732698679</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.55695577161193</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>167.5280026112699</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.02629574295494</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2734.312968633809</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.544313363695</v>
+        <v>1621.835993060943</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>622.8136871311516</v>
+        <v>1292.966125319478</v>
       </c>
       <c r="C4" t="n">
-        <v>453.8775042032447</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="D4" t="n">
-        <v>453.8775042032447</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="E4" t="n">
-        <v>305.9644106208516</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>159.0744631229412</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>159.0744631229412</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>159.0744631229412</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>2057.860362705856</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1803.175874499969</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>1513.758704463008</v>
       </c>
       <c r="X4" t="n">
-        <v>843.6062662746817</v>
+        <v>1513.758704463008</v>
       </c>
       <c r="Y4" t="n">
-        <v>622.8136871311516</v>
+        <v>1292.966125319478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1811.579746109089</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1442.617229168678</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D5" t="n">
-        <v>1084.351530561927</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>698.563277963683</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149023</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.179586173211</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>846.4114288731531</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1514.659610810266</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1225.242440773306</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X7" t="n">
-        <v>997.2528898752885</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.539063190924</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1786.467735731474</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1786.467735731474</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1531.783247525587</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.366077488626</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.376526590609</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.5839474470786</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="11">
@@ -5072,19 +5074,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,10 +5466,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5536,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>403.0086152208354</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>235.8125159357153</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>94.10068477791341</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5740,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6318,13 +6320,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>432.9862109052757</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,7 +7025,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395904</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="G37" t="n">
-        <v>282.1478848544703</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7102,43 +7104,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,16 +7177,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2404.986360578632</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>333.5348535420919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.73277020259215</v>
       </c>
     </row>
     <row r="14">
@@ -23704,13 +23706,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
-        <v>80.9846548059234</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>45.44677382459273</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>51.30683507832751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>63.36835372229199</v>
       </c>
       <c r="H37" t="n">
-        <v>35.11263957635599</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.81829093850975</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>118.6564717779742</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912295.1063258967</v>
+        <v>921207.9975775029</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341915</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26344,16 +26346,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312017</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="F4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26451,10 +26453,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992135.7149703219</v>
+        <v>-811942.8160112024</v>
       </c>
       <c r="C6" t="n">
-        <v>336609.030757271</v>
+        <v>133170.289145165</v>
       </c>
       <c r="D6" t="n">
         <v>336609.0307572709</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547284</v>
+        <v>88163.15384547316</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.6156528279</v>
+        <v>413575.615652828</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.6156528282</v>
+        <v>413575.6156528278</v>
       </c>
       <c r="H6" t="n">
-        <v>413575.6156528281</v>
+        <v>413575.6156528278</v>
       </c>
       <c r="I6" t="n">
         <v>413575.6156528278</v>
       </c>
       <c r="J6" t="n">
-        <v>196044.4132555504</v>
+        <v>245970.4378428455</v>
       </c>
       <c r="K6" t="n">
-        <v>413575.615652828</v>
+        <v>364465.5229467734</v>
       </c>
       <c r="L6" t="n">
         <v>413575.615652828</v>
       </c>
       <c r="M6" t="n">
-        <v>328520.5877173162</v>
+        <v>328520.5877173165</v>
       </c>
       <c r="N6" t="n">
+        <v>413575.615652828</v>
+      </c>
+      <c r="O6" t="n">
         <v>413575.6156528281</v>
       </c>
-      <c r="O6" t="n">
-        <v>413575.615652828</v>
-      </c>
       <c r="P6" t="n">
-        <v>413575.615652828</v>
+        <v>413575.6156528282</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>306.473237911224</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>327.0505757092176</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>4.715697185987864</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>7.541674081056101</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>248.2388298370438</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.50340795433993</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>63.17800469455264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>186.0815621395574</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>51.9739689597493</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.7428620068422</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0625577127677</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-3.232838081714498e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32320,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.6314956130963</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33038,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33743,10 +33745,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.64972152707474</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36686,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37470,7 +37472,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653286.186087885</v>
+        <v>1649232.060328506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>236.8975246450773</v>
       </c>
       <c r="W2" t="n">
-        <v>22.19039300819541</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>278.6854800401445</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>117.0340619339638</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>332.5974168996786</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>73.11206506387242</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>179.1913296314501</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>103.6556327113217</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.08911817509509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>97.02629574295494</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>135.5795121770519</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>114.2173032139413</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1557845699769</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>247.422442654656</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>167.5280026112699</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2069.467838729914</v>
       </c>
       <c r="W2" t="n">
-        <v>1621.835993060943</v>
+        <v>1716.6991834598</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>1716.6991834598</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1716.6991834598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,22 +4409,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1292.966125319478</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>1124.029942391571</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>1124.029942391571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391571</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594891</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2057.860362705856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1803.175874499969</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1513.758704463008</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1513.758704463008</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>1292.966125319478</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>2295.336172843073</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.154071768027</v>
+        <v>1926.373655902661</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1568.107957295911</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2681.936012907195</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>846.4114288731531</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.9960766313</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.41801219738</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>883.8708262827852</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>883.8708262827852</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>883.8708262827852</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261502</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251695</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251695</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816394</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.366912656562</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.29168600076</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163646</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7903292978459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C28" t="n">
         <v>634.927936255316</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6788,19 +6788,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400667</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121598</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121598</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297667</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>197.0043242297667</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7104,43 +7104,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7496,19 +7496,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515143</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.94462611521699</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>45.44677382459273</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.0295178846865</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>63.36835372229199</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.715200669171992</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>118.6564717779742</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341915</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897010.4191341915</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,7 +26435,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112024</v>
+        <v>-811942.8160112018</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.289145165</v>
+        <v>133170.2891451647</v>
       </c>
       <c r="D6" t="n">
-        <v>336609.0307572709</v>
+        <v>336609.030757271</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547316</v>
+        <v>87815.77459111575</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.615652828</v>
+        <v>413228.2363984709</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.6156528278</v>
+        <v>413228.236398471</v>
       </c>
       <c r="H6" t="n">
-        <v>413575.6156528278</v>
+        <v>413228.2363984708</v>
       </c>
       <c r="I6" t="n">
-        <v>413575.6156528278</v>
+        <v>413228.236398471</v>
       </c>
       <c r="J6" t="n">
-        <v>245970.4378428455</v>
+        <v>245623.0585884883</v>
       </c>
       <c r="K6" t="n">
-        <v>364465.5229467734</v>
+        <v>364118.1436924164</v>
       </c>
       <c r="L6" t="n">
-        <v>413575.615652828</v>
+        <v>413228.2363984709</v>
       </c>
       <c r="M6" t="n">
-        <v>328520.5877173165</v>
+        <v>328173.2084629592</v>
       </c>
       <c r="N6" t="n">
-        <v>413575.615652828</v>
+        <v>413228.236398471</v>
       </c>
       <c r="O6" t="n">
-        <v>413575.6156528281</v>
+        <v>413228.236398471</v>
       </c>
       <c r="P6" t="n">
-        <v>413575.6156528282</v>
+        <v>413228.2363984709</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>90.85473382505765</v>
       </c>
       <c r="W2" t="n">
-        <v>327.0505757092176</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>7.541674081056101</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>248.2388298370438</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>49.33295317258313</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.50340795433993</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>73.08464294440365</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>186.0815621395574</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>303.2204130303897</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.7428620068422</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.232838081714498e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34149,13 +34149,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750467</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010404</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37797,13 +37797,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1649232.060328506</v>
+        <v>1650992.590631291</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>71.07207776351973</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>236.8975246450773</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>65.54923767829332</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>332.5974168996786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>142.4741679217957</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>103.6556327113217</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.834206670628964</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.4306205949047</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>97.02629574295494</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>114.2173032139413</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.9529137347759</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>247.422442654656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1713.412786206037</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1344.450269265626</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>986.1845706588754</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>600.3963180606311</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>189.4104132710235</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2069.467838729914</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W2" t="n">
-        <v>1716.6991834598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X2" t="n">
-        <v>1716.6991834598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.6991834598</v>
+        <v>2100.012626270159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2295.336172843073</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1926.373655902661</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.107957295911</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>3071.401852205159</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883006</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X5" t="n">
-        <v>3072.075344883006</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2681.936012907195</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223197</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>883.8708262827852</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>883.8708262827852</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>883.8708262827852</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2410.164476918741</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>333.5348535420919</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
         <v>261.0127623330919</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C31" t="n">
-        <v>465.5282911402533</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>518.7345161832558</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>371.8445686853454</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>701.4712640439268</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>532.5350811160199</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>29.94462611521699</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68.4978425493139</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0295178846865</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>30.57122455749297</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>26.01259675821726</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.715200669171992</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897010.4191341915</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341916</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605457</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112018</v>
+        <v>-811942.8160112022</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.2891451647</v>
+        <v>133170.2891451649</v>
       </c>
       <c r="D6" t="n">
         <v>336609.030757271</v>
       </c>
       <c r="E6" t="n">
-        <v>87815.77459111575</v>
+        <v>88128.41592003693</v>
       </c>
       <c r="F6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="G6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="H6" t="n">
-        <v>413228.2363984708</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="I6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="J6" t="n">
-        <v>245623.0585884883</v>
+        <v>245935.6999174097</v>
       </c>
       <c r="K6" t="n">
-        <v>364118.1436924164</v>
+        <v>364430.7850213377</v>
       </c>
       <c r="L6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="M6" t="n">
-        <v>328173.2084629592</v>
+        <v>328485.8497918804</v>
       </c>
       <c r="N6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273924</v>
       </c>
       <c r="O6" t="n">
-        <v>413228.236398471</v>
+        <v>413540.8777273924</v>
       </c>
       <c r="P6" t="n">
-        <v>413228.2363984709</v>
+        <v>413540.8777273922</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>340.4756250094342</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,16 +27432,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>90.85473382505765</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>160.1604177107438</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>49.33295317258313</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>185.2780905483392</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>73.08464294440365</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>303.2204130303897</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>324.9180517995059</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
